--- a/Temporary Dataset -- VandyHacks Summer 2020.xlsx
+++ b/Temporary Dataset -- VandyHacks Summer 2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sukriti/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/CS/NPLF-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D099EA-A533-E648-A11E-B864B848AF7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1803026-D85C-C946-9E55-8D5EC4434A2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19400" windowHeight="10400" xr2:uid="{4F70E95C-49FE-4C7D-B77C-8B58C2A1FD2E}"/>
   </bookViews>
@@ -47,13 +47,13 @@
     <t>Facebook Reach</t>
   </si>
   <si>
-    <t>TwitterReach</t>
-  </si>
-  <si>
     <t>LinkedIn Reach</t>
   </si>
   <si>
     <t>Email Marketing</t>
+  </si>
+  <si>
+    <t>Twitter Reach</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -428,13 +428,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
